--- a/Analysis_239304M.xlsx
+++ b/Analysis_239304M.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
   <si>
     <t>Carrier Delay</t>
   </si>
@@ -50,13 +50,13 @@
     <t>Spark-SQL</t>
   </si>
   <si>
-    <t>Time Taken By Query (s)</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
     <t>Spark</t>
+  </si>
+  <si>
+    <t>Average Time Taken By Query (s)</t>
   </si>
 </sst>
 </file>
@@ -88,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -120,22 +120,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -194,7 +229,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Vs Spark-SQL</a:t>
+              <a:t> Vs Spark-SQL for Avg. time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -390,11 +425,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2068463680"/>
-        <c:axId val="2068462592"/>
+        <c:axId val="-1110808800"/>
+        <c:axId val="-1110807712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2068463680"/>
+        <c:axId val="-1110808800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,7 +533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068462592"/>
+        <c:crossAx val="-1110807712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -506,7 +541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2068462592"/>
+        <c:axId val="-1110807712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,7 +582,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>TIme taken by query (second)</a:t>
+                  <a:t>Avg. TIme taken by query (second)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -613,7 +648,2436 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068463680"/>
+        <c:crossAx val="-1110808800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HiveQL Vs Spark-SQL for Carrier delay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HiveQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>37.631999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.239000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.707000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.481</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark-SQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1110806080"/>
+        <c:axId val="-1110813152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1110806080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No of iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1110813152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1110813152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Running Time (second)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1110806080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HiveQL Vs Spark-SQL for NAS delay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HiveQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$33:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.879000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.420999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark-SQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$33:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1110803904"/>
+        <c:axId val="-1110812064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1110803904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No of iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1110812064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1110812064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Running Time (second)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1110803904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HiveQL Vs Spark-SQL for Weather delay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HiveQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$33:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.523</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark-SQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$33:$N$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1110802816"/>
+        <c:axId val="-1110802272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1110802816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No of iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1110802272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1110802272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Running Time (second)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1110802816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HiveQL Vs Spark-SQL for Late Aircraft</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>delay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HiveQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$33:$V$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0990000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark-SQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$33:$W$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1015140464"/>
+        <c:axId val="-1015139920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1015140464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No of iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1015139920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1015139920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Running Time (second)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1015140464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HiveQL Vs Spark-SQL for Security delay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HiveQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$33:$AE$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AF$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark-SQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$33:$AF$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1015151888"/>
+        <c:axId val="-1015144816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1015151888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No of iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1015144816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1015144816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Running Time (second)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1015151888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -734,7 +3198,2722 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1242,15 +6421,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1059180</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1264,6 +6443,156 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1535,300 +6864,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.109375" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" customWidth="1"/>
+    <col min="30" max="30" width="6" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="H1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>37.631999999999998</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>18.879000000000001</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>18.55</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>18.170000000000002</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>13.738</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>13.26</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>12.99</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>12.56</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>13.11</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>13.46</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>17.239000000000001</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>13.458</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>12.445</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>18.22</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>12.856</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>14.64</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>0.98</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>0.71</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>1.01</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>3.6240000000000001</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>18.663</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>13.887</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>13.05</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>12.272</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>1.02</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>1.21</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>0.61</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>0.63</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>0.77</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>19.707000000000001</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>14.420999999999999</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>13.523</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>13.795</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>12.526</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>13.4</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.66</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>0.61</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>0.85</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>0.71</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>13.673</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>13.074</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>13.353</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>3.0990000000000002</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>13.648</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.93</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>0.73</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>0.7</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>0.84</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>0.64</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>14.481</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>23.852</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="H8" s="2">
+      <c r="E8" s="3"/>
+      <c r="H8" s="1">
         <v>0.83</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <f>AVERAGE(A3:A8)</f>
         <v>17.725999999999999</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <f>SUM(B3:B7)/5</f>
         <v>15.698999999999998</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <f>SUM(C3:C7)/5</f>
         <v>14.351599999999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <f>SUM(D3:D8)/6</f>
         <v>15.031000000000001</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <f>SUM(E3:E7)/5</f>
         <v>13.007999999999999</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2">
+      <c r="F9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1">
         <f>AVERAGE(H3:H8)</f>
         <v>7.3466666666666667</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <f>AVERAGE(I3:I7)</f>
         <v>3.3359999999999999</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <f>AVERAGE(J3:J7)</f>
         <v>3.0919999999999996</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f>AVERAGE(K3:K7)</f>
         <v>3.2280000000000002</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <f>AVERAGE(L3:L7)</f>
         <v>3.3180000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" ref="A9:C11" si="0">AVERAGE(A3:A8)</f>
+        <f t="shared" ref="A11:C11" si="0">AVERAGE(A3:A8)</f>
         <v>17.725999999999999</v>
       </c>
       <c r="B11">
@@ -1849,81 +7184,308 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <f>A9</f>
         <v>17.725999999999999</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>7.3460000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <f>B9</f>
         <v>15.698999999999998</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>3.3359999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <f>C9</f>
         <v>14.351599999999999</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>3.0920000000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <f>D9</f>
         <v>15.031000000000001</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>3.2280000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <f>E9</f>
         <v>13.007999999999999</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>3.3180000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="M31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="9"/>
+      <c r="V31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W31" s="5"/>
+      <c r="AE31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF31" s="5"/>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>37.631999999999998</v>
+      </c>
+      <c r="C33" s="1">
+        <v>13.26</v>
+      </c>
+      <c r="F33" s="3">
+        <v>18.879000000000001</v>
+      </c>
+      <c r="G33" s="1">
+        <v>12.99</v>
+      </c>
+      <c r="M33" s="3">
+        <v>18.55</v>
+      </c>
+      <c r="N33" s="1">
+        <v>12.56</v>
+      </c>
+      <c r="V33" s="3">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="W33" s="1">
+        <v>13.11</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>13.738</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>13.46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>17.239000000000001</v>
+      </c>
+      <c r="C34" s="1">
+        <v>14.64</v>
+      </c>
+      <c r="F34" s="3">
+        <v>13.458</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M34" s="3">
+        <v>12.445</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="V34" s="3">
+        <v>18.22</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>12.856</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
+        <v>3.6240000000000001</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="F35" s="3">
+        <v>18.663</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="M35" s="3">
+        <v>13.887</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="V35" s="3">
+        <v>13.05</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>12.272</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B36" s="3">
+        <v>19.707000000000001</v>
+      </c>
+      <c r="C36" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="F36" s="3">
+        <v>14.420999999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="M36" s="3">
+        <v>13.523</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="V36" s="3">
+        <v>13.795</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>12.526</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <v>13.673</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="F37" s="3">
+        <v>13.074</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="M37" s="3">
+        <v>13.353</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="V37" s="3">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>13.648</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
+        <v>14.481</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="AE31:AF31"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="M31:N31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
